--- a/biology/Botanique/Arbre_de_l'année/Arbre_de_l'année.xlsx
+++ b/biology/Botanique/Arbre_de_l'année/Arbre_de_l'année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_de_l%27ann%C3%A9e</t>
+          <t>Arbre_de_l'année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concours de l'Arbre de l'année est organisé chaque année  en France par Terre sauvage et l'Office national des forêts en partenariat avec l'association A.R.B.R.E.S, la Ligue pour la protection des oiseaux (LPO), l'agence des espaces verts de la région d'Île-de-France, Ushuaïa TV et l'Arbre vert, organisation caritative nationale de conservation. Ce concours, organisé depuis 2011, récompense les plus beaux arbres du patrimoine naturel français. L'arbre élu chaque année participe ensuite, comme représentant de la France, au concours de l'Arbre européen de l'année.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_de_l%27ann%C3%A9e</t>
+          <t>Arbre_de_l'année</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Lauréats 2021</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour l'année 2021, quatre prix ont été décernés[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pour l'année 2021, quatre prix ont été décernés :
 prix du jury : Châtaignier de Celles-sur-Belle,  Celles-sur-Belle (Deux-Sèvres) ;
 prix du public : Châtaignier de La Celle-Saint-Cloud, La Celle-Saint-Cloud (Yvelines) ;
 prix d'honneur : Chêne aux deux chapelles, Allouville-Bellefosse (Seine-Maritime) ;
